--- a/data/outputs/能源化工元源数据文件/23（2）ENERGY AND BUILDINGS.xlsx
+++ b/data/outputs/能源化工元源数据文件/23（2）ENERGY AND BUILDINGS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ282"/>
+  <dimension ref="A1:BR282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -911,6 +916,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1122,6 +1128,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1337,6 +1344,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1544,6 +1552,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1743,6 +1752,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1946,6 +1956,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2153,6 +2164,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2348,6 +2360,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2555,6 +2568,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2770,6 +2784,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2989,6 +3004,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3196,6 +3212,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3403,6 +3420,11 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>4559256</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3602,6 +3624,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3821,6 +3844,11 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>21940726</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4024,6 +4052,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4235,6 +4264,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4446,6 +4476,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4661,6 +4692,11 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>3539097</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4876,6 +4912,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5079,6 +5116,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5286,6 +5324,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5497,6 +5536,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5712,6 +5752,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5919,6 +5960,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6130,6 +6172,11 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr">
+        <is>
+          <t>3468502</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6337,6 +6384,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6552,6 +6600,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6773,6 +6822,11 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr">
+        <is>
+          <t>3785477</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6988,6 +7042,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7203,6 +7258,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7410,6 +7466,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7609,6 +7666,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7816,6 +7874,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8023,6 +8082,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8230,6 +8290,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8441,6 +8502,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8660,6 +8722,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8875,6 +8938,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9078,6 +9142,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9277,6 +9342,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9492,6 +9558,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9703,6 +9770,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9910,6 +9978,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10125,6 +10194,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10340,6 +10410,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10547,6 +10618,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10758,6 +10830,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10973,6 +11046,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11172,6 +11246,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11379,6 +11454,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11578,6 +11654,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11793,6 +11870,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11996,6 +12074,11 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr">
+        <is>
+          <t>9578650</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12203,6 +12286,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12414,6 +12498,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12621,6 +12706,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12820,6 +12906,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13027,6 +13114,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13230,6 +13318,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13437,6 +13526,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13644,6 +13734,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13851,6 +13942,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14058,6 +14150,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14265,6 +14358,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14472,6 +14566,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14683,6 +14778,11 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr">
+        <is>
+          <t>27382699</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14866,6 +14966,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15073,6 +15174,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15292,6 +15394,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15511,6 +15614,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15718,6 +15822,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15933,6 +16038,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16140,6 +16246,11 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr">
+        <is>
+          <t>3065407</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16339,6 +16450,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16550,6 +16662,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16761,6 +16874,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -16968,6 +17082,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17183,6 +17298,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17390,6 +17506,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17593,6 +17710,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17800,6 +17918,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18007,6 +18126,7 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18214,6 +18334,7 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18425,6 +18546,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18620,6 +18742,7 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18831,6 +18954,11 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr">
+        <is>
+          <t>3709876</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -18917,7 +19045,7 @@
       </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>Jadid, Shahram/0000-0002-7761-2430; </t>
+          <t>Jadid, Shahram/0000-0002-7761-2430;</t>
         </is>
       </c>
       <c r="AB89" t="inlineStr"/>
@@ -19038,6 +19166,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19237,6 +19366,7 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19452,6 +19582,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19659,6 +19790,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -19866,6 +19998,11 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr">
+        <is>
+          <t>6249418</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20081,6 +20218,7 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20296,6 +20434,7 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20507,6 +20646,7 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20714,6 +20854,7 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -20925,6 +21066,7 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21136,6 +21278,11 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr">
+        <is>
+          <t>3709907</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21335,6 +21482,7 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21550,6 +21698,7 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -21749,6 +21898,7 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -21948,6 +22098,11 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr">
+        <is>
+          <t>3165792</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22159,6 +22314,11 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr">
+        <is>
+          <t>3072778</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22366,6 +22526,7 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -22565,6 +22726,7 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -22772,6 +22934,11 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr">
+        <is>
+          <t>3318242</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -22971,6 +23138,11 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr">
+        <is>
+          <t>6126754</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23182,6 +23354,7 @@
         </is>
       </c>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23397,6 +23570,7 @@
         </is>
       </c>
       <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -23604,6 +23778,7 @@
         </is>
       </c>
       <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -23811,6 +23986,7 @@
         </is>
       </c>
       <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24026,6 +24202,7 @@
         </is>
       </c>
       <c r="BQ113" t="inlineStr"/>
+      <c r="BR113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -24237,6 +24414,7 @@
         </is>
       </c>
       <c r="BQ114" t="inlineStr"/>
+      <c r="BR114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -24452,6 +24630,7 @@
         </is>
       </c>
       <c r="BQ115" t="inlineStr"/>
+      <c r="BR115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -24667,6 +24846,11 @@
         </is>
       </c>
       <c r="BQ116" t="inlineStr"/>
+      <c r="BR116" t="inlineStr">
+        <is>
+          <t>3042816</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -24874,6 +25058,7 @@
         </is>
       </c>
       <c r="BQ117" t="inlineStr"/>
+      <c r="BR117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -25073,6 +25258,7 @@
         </is>
       </c>
       <c r="BQ118" t="inlineStr"/>
+      <c r="BR118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -25280,6 +25466,7 @@
         </is>
       </c>
       <c r="BQ119" t="inlineStr"/>
+      <c r="BR119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -25495,6 +25682,7 @@
         </is>
       </c>
       <c r="BQ120" t="inlineStr"/>
+      <c r="BR120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -25702,6 +25890,7 @@
         </is>
       </c>
       <c r="BQ121" t="inlineStr"/>
+      <c r="BR121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -25905,6 +26094,7 @@
         </is>
       </c>
       <c r="BQ122" t="inlineStr"/>
+      <c r="BR122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -26120,6 +26310,7 @@
         </is>
       </c>
       <c r="BQ123" t="inlineStr"/>
+      <c r="BR123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -26335,6 +26526,7 @@
         </is>
       </c>
       <c r="BQ124" t="inlineStr"/>
+      <c r="BR124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -26542,6 +26734,7 @@
         </is>
       </c>
       <c r="BQ125" t="inlineStr"/>
+      <c r="BR125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -26753,6 +26946,11 @@
         </is>
       </c>
       <c r="BQ126" t="inlineStr"/>
+      <c r="BR126" t="inlineStr">
+        <is>
+          <t>6659988</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -26968,6 +27166,7 @@
         </is>
       </c>
       <c r="BQ127" t="inlineStr"/>
+      <c r="BR127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -27179,6 +27378,7 @@
         </is>
       </c>
       <c r="BQ128" t="inlineStr"/>
+      <c r="BR128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -27386,6 +27586,7 @@
         </is>
       </c>
       <c r="BQ129" t="inlineStr"/>
+      <c r="BR129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -27597,6 +27798,7 @@
         </is>
       </c>
       <c r="BQ130" t="inlineStr"/>
+      <c r="BR130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -27816,6 +28018,11 @@
         </is>
       </c>
       <c r="BQ131" t="inlineStr"/>
+      <c r="BR131" t="inlineStr">
+        <is>
+          <t>4649931</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -28031,6 +28238,7 @@
         </is>
       </c>
       <c r="BQ132" t="inlineStr"/>
+      <c r="BR132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -28242,6 +28450,7 @@
         </is>
       </c>
       <c r="BQ133" t="inlineStr"/>
+      <c r="BR133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -28445,6 +28654,7 @@
         </is>
       </c>
       <c r="BQ134" t="inlineStr"/>
+      <c r="BR134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -28664,6 +28874,11 @@
         </is>
       </c>
       <c r="BQ135" t="inlineStr"/>
+      <c r="BR135" t="inlineStr">
+        <is>
+          <t>4081947</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -28871,6 +29086,7 @@
         </is>
       </c>
       <c r="BQ136" t="inlineStr"/>
+      <c r="BR136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -29086,6 +29302,7 @@
         </is>
       </c>
       <c r="BQ137" t="inlineStr"/>
+      <c r="BR137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -29301,6 +29518,7 @@
         </is>
       </c>
       <c r="BQ138" t="inlineStr"/>
+      <c r="BR138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -29512,6 +29730,11 @@
         </is>
       </c>
       <c r="BQ139" t="inlineStr"/>
+      <c r="BR139" t="inlineStr">
+        <is>
+          <t>3035734</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -29711,6 +29934,7 @@
         </is>
       </c>
       <c r="BQ140" t="inlineStr"/>
+      <c r="BR140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -29922,6 +30146,7 @@
         </is>
       </c>
       <c r="BQ141" t="inlineStr"/>
+      <c r="BR141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -30129,6 +30354,7 @@
         </is>
       </c>
       <c r="BQ142" t="inlineStr"/>
+      <c r="BR142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -30332,6 +30558,7 @@
         </is>
       </c>
       <c r="BQ143" t="inlineStr"/>
+      <c r="BR143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -30539,6 +30766,7 @@
         </is>
       </c>
       <c r="BQ144" t="inlineStr"/>
+      <c r="BR144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -30750,6 +30978,11 @@
         </is>
       </c>
       <c r="BQ145" t="inlineStr"/>
+      <c r="BR145" t="inlineStr">
+        <is>
+          <t>13723307</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -30965,6 +31198,7 @@
         </is>
       </c>
       <c r="BQ146" t="inlineStr"/>
+      <c r="BR146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -31176,6 +31410,7 @@
         </is>
       </c>
       <c r="BQ147" t="inlineStr"/>
+      <c r="BR147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -31383,6 +31618,11 @@
         </is>
       </c>
       <c r="BQ148" t="inlineStr"/>
+      <c r="BR148" t="inlineStr">
+        <is>
+          <t>15414845</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -31590,6 +31830,7 @@
         </is>
       </c>
       <c r="BQ149" t="inlineStr"/>
+      <c r="BR149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -31805,6 +32046,7 @@
         </is>
       </c>
       <c r="BQ150" t="inlineStr"/>
+      <c r="BR150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -32016,6 +32258,7 @@
         </is>
       </c>
       <c r="BQ151" t="inlineStr"/>
+      <c r="BR151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -32215,6 +32458,7 @@
         </is>
       </c>
       <c r="BQ152" t="inlineStr"/>
+      <c r="BR152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -32422,6 +32666,7 @@
         </is>
       </c>
       <c r="BQ153" t="inlineStr"/>
+      <c r="BR153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -32641,6 +32886,7 @@
         </is>
       </c>
       <c r="BQ154" t="inlineStr"/>
+      <c r="BR154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -32860,6 +33106,7 @@
         </is>
       </c>
       <c r="BQ155" t="inlineStr"/>
+      <c r="BR155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -32946,7 +33193,7 @@
       </c>
       <c r="AA156" t="inlineStr">
         <is>
-          <t>Breesch, Hilde/0000-0001-7088-7231; </t>
+          <t>Breesch, Hilde/0000-0001-7088-7231;</t>
         </is>
       </c>
       <c r="AB156" t="inlineStr"/>
@@ -33067,6 +33314,7 @@
         </is>
       </c>
       <c r="BQ156" t="inlineStr"/>
+      <c r="BR156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -33274,6 +33522,7 @@
         </is>
       </c>
       <c r="BQ157" t="inlineStr"/>
+      <c r="BR157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -33481,6 +33730,7 @@
         </is>
       </c>
       <c r="BQ158" t="inlineStr"/>
+      <c r="BR158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -33680,6 +33930,7 @@
         </is>
       </c>
       <c r="BQ159" t="inlineStr"/>
+      <c r="BR159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -33883,6 +34134,7 @@
         </is>
       </c>
       <c r="BQ160" t="inlineStr"/>
+      <c r="BR160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -34090,6 +34342,7 @@
         </is>
       </c>
       <c r="BQ161" t="inlineStr"/>
+      <c r="BR161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -34301,6 +34554,7 @@
         </is>
       </c>
       <c r="BQ162" t="inlineStr"/>
+      <c r="BR162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -34504,6 +34758,7 @@
         </is>
       </c>
       <c r="BQ163" t="inlineStr"/>
+      <c r="BR163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -34707,6 +34962,11 @@
         </is>
       </c>
       <c r="BQ164" t="inlineStr"/>
+      <c r="BR164" t="inlineStr">
+        <is>
+          <t>26805432</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -34906,6 +35166,7 @@
         </is>
       </c>
       <c r="BQ165" t="inlineStr"/>
+      <c r="BR165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -35113,6 +35374,7 @@
         </is>
       </c>
       <c r="BQ166" t="inlineStr"/>
+      <c r="BR166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -35320,6 +35582,7 @@
         </is>
       </c>
       <c r="BQ167" t="inlineStr"/>
+      <c r="BR167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -35527,6 +35790,11 @@
         </is>
       </c>
       <c r="BQ168" t="inlineStr"/>
+      <c r="BR168" t="inlineStr">
+        <is>
+          <t>9584727</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -35742,6 +36010,11 @@
         </is>
       </c>
       <c r="BQ169" t="inlineStr"/>
+      <c r="BR169" t="inlineStr">
+        <is>
+          <t>13723341</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -35945,6 +36218,7 @@
         </is>
       </c>
       <c r="BQ170" t="inlineStr"/>
+      <c r="BR170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -36160,6 +36434,7 @@
         </is>
       </c>
       <c r="BQ171" t="inlineStr"/>
+      <c r="BR171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -36359,6 +36634,7 @@
         </is>
       </c>
       <c r="BQ172" t="inlineStr"/>
+      <c r="BR172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -36566,6 +36842,7 @@
         </is>
       </c>
       <c r="BQ173" t="inlineStr"/>
+      <c r="BR173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -36773,6 +37050,7 @@
         </is>
       </c>
       <c r="BQ174" t="inlineStr"/>
+      <c r="BR174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -36980,6 +37258,7 @@
         </is>
       </c>
       <c r="BQ175" t="inlineStr"/>
+      <c r="BR175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -37191,6 +37470,11 @@
         </is>
       </c>
       <c r="BQ176" t="inlineStr"/>
+      <c r="BR176" t="inlineStr">
+        <is>
+          <t>4365419</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -37406,6 +37690,7 @@
         </is>
       </c>
       <c r="BQ177" t="inlineStr"/>
+      <c r="BR177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -37613,6 +37898,7 @@
         </is>
       </c>
       <c r="BQ178" t="inlineStr"/>
+      <c r="BR178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -37812,6 +38098,7 @@
         </is>
       </c>
       <c r="BQ179" t="inlineStr"/>
+      <c r="BR179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -38023,6 +38310,7 @@
         </is>
       </c>
       <c r="BQ180" t="inlineStr"/>
+      <c r="BR180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -38238,6 +38526,7 @@
         </is>
       </c>
       <c r="BQ181" t="inlineStr"/>
+      <c r="BR181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -38441,6 +38730,11 @@
         </is>
       </c>
       <c r="BQ182" t="inlineStr"/>
+      <c r="BR182" t="inlineStr">
+        <is>
+          <t>3760759</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -38656,6 +38950,7 @@
         </is>
       </c>
       <c r="BQ183" t="inlineStr"/>
+      <c r="BR183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -38859,6 +39154,7 @@
         </is>
       </c>
       <c r="BQ184" t="inlineStr"/>
+      <c r="BR184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -39066,6 +39362,7 @@
         </is>
       </c>
       <c r="BQ185" t="inlineStr"/>
+      <c r="BR185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -39269,6 +39566,7 @@
         </is>
       </c>
       <c r="BQ186" t="inlineStr"/>
+      <c r="BR186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -39468,6 +39766,7 @@
         </is>
       </c>
       <c r="BQ187" t="inlineStr"/>
+      <c r="BR187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -39667,6 +39966,7 @@
         </is>
       </c>
       <c r="BQ188" t="inlineStr"/>
+      <c r="BR188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -39874,6 +40174,7 @@
         </is>
       </c>
       <c r="BQ189" t="inlineStr"/>
+      <c r="BR189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -40089,6 +40390,7 @@
         </is>
       </c>
       <c r="BQ190" t="inlineStr"/>
+      <c r="BR190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -40296,6 +40598,7 @@
         </is>
       </c>
       <c r="BQ191" t="inlineStr"/>
+      <c r="BR191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -40503,6 +40806,7 @@
         </is>
       </c>
       <c r="BQ192" t="inlineStr"/>
+      <c r="BR192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -40718,6 +41022,7 @@
         </is>
       </c>
       <c r="BQ193" t="inlineStr"/>
+      <c r="BR193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -40917,6 +41222,7 @@
         </is>
       </c>
       <c r="BQ194" t="inlineStr"/>
+      <c r="BR194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -41132,6 +41438,7 @@
         </is>
       </c>
       <c r="BQ195" t="inlineStr"/>
+      <c r="BR195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -41335,6 +41642,7 @@
         </is>
       </c>
       <c r="BQ196" t="inlineStr"/>
+      <c r="BR196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -41542,6 +41850,7 @@
         </is>
       </c>
       <c r="BQ197" t="inlineStr"/>
+      <c r="BR197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -41753,6 +42062,7 @@
         </is>
       </c>
       <c r="BQ198" t="inlineStr"/>
+      <c r="BR198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -41952,6 +42262,7 @@
         </is>
       </c>
       <c r="BQ199" t="inlineStr"/>
+      <c r="BR199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -42159,6 +42470,7 @@
         </is>
       </c>
       <c r="BQ200" t="inlineStr"/>
+      <c r="BR200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -42370,6 +42682,7 @@
         </is>
       </c>
       <c r="BQ201" t="inlineStr"/>
+      <c r="BR201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -42585,6 +42898,7 @@
         </is>
       </c>
       <c r="BQ202" t="inlineStr"/>
+      <c r="BR202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -42788,6 +43102,7 @@
         </is>
       </c>
       <c r="BQ203" t="inlineStr"/>
+      <c r="BR203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -42987,6 +43302,7 @@
         </is>
       </c>
       <c r="BQ204" t="inlineStr"/>
+      <c r="BR204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -43202,6 +43518,7 @@
         </is>
       </c>
       <c r="BQ205" t="inlineStr"/>
+      <c r="BR205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -43417,6 +43734,7 @@
         </is>
       </c>
       <c r="BQ206" t="inlineStr"/>
+      <c r="BR206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -43632,6 +43950,11 @@
         </is>
       </c>
       <c r="BQ207" t="inlineStr"/>
+      <c r="BR207" t="inlineStr">
+        <is>
+          <t>2819989</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -43847,6 +44170,7 @@
         </is>
       </c>
       <c r="BQ208" t="inlineStr"/>
+      <c r="BR208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -44050,6 +44374,7 @@
         </is>
       </c>
       <c r="BQ209" t="inlineStr"/>
+      <c r="BR209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -44265,6 +44590,7 @@
         </is>
       </c>
       <c r="BQ210" t="inlineStr"/>
+      <c r="BR210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -44464,6 +44790,7 @@
         </is>
       </c>
       <c r="BQ211" t="inlineStr"/>
+      <c r="BR211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -44667,6 +44994,7 @@
         </is>
       </c>
       <c r="BQ212" t="inlineStr"/>
+      <c r="BR212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -44882,6 +45210,7 @@
         </is>
       </c>
       <c r="BQ213" t="inlineStr"/>
+      <c r="BR213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -45097,6 +45426,7 @@
         </is>
       </c>
       <c r="BQ214" t="inlineStr"/>
+      <c r="BR214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -45312,6 +45642,7 @@
         </is>
       </c>
       <c r="BQ215" t="inlineStr"/>
+      <c r="BR215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -45527,6 +45858,7 @@
         </is>
       </c>
       <c r="BQ216" t="inlineStr"/>
+      <c r="BR216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -45742,6 +46074,11 @@
         </is>
       </c>
       <c r="BQ217" t="inlineStr"/>
+      <c r="BR217" t="inlineStr">
+        <is>
+          <t>2814919</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -45941,6 +46278,7 @@
         </is>
       </c>
       <c r="BQ218" t="inlineStr"/>
+      <c r="BR218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -46148,6 +46486,7 @@
         </is>
       </c>
       <c r="BQ219" t="inlineStr"/>
+      <c r="BR219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -46359,6 +46698,11 @@
         </is>
       </c>
       <c r="BQ220" t="inlineStr"/>
+      <c r="BR220" t="inlineStr">
+        <is>
+          <t>22349429</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -46574,6 +46918,7 @@
         </is>
       </c>
       <c r="BQ221" t="inlineStr"/>
+      <c r="BR221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -46785,6 +47130,7 @@
         </is>
       </c>
       <c r="BQ222" t="inlineStr"/>
+      <c r="BR222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -46988,6 +47334,7 @@
         </is>
       </c>
       <c r="BQ223" t="inlineStr"/>
+      <c r="BR223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -47183,6 +47530,7 @@
         </is>
       </c>
       <c r="BQ224" t="inlineStr"/>
+      <c r="BR224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -47382,6 +47730,7 @@
         </is>
       </c>
       <c r="BQ225" t="inlineStr"/>
+      <c r="BR225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -47589,6 +47938,11 @@
         </is>
       </c>
       <c r="BQ226" t="inlineStr"/>
+      <c r="BR226" t="inlineStr">
+        <is>
+          <t>14040355</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -47792,6 +48146,7 @@
         </is>
       </c>
       <c r="BQ227" t="inlineStr"/>
+      <c r="BR227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -48003,6 +48358,7 @@
         </is>
       </c>
       <c r="BQ228" t="inlineStr"/>
+      <c r="BR228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -48210,6 +48566,7 @@
         </is>
       </c>
       <c r="BQ229" t="inlineStr"/>
+      <c r="BR229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -48425,6 +48782,7 @@
         </is>
       </c>
       <c r="BQ230" t="inlineStr"/>
+      <c r="BR230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -48640,6 +48998,7 @@
         </is>
       </c>
       <c r="BQ231" t="inlineStr"/>
+      <c r="BR231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -48843,6 +49202,7 @@
         </is>
       </c>
       <c r="BQ232" t="inlineStr"/>
+      <c r="BR232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -49050,6 +49410,7 @@
         </is>
       </c>
       <c r="BQ233" t="inlineStr"/>
+      <c r="BR233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -49257,6 +49618,7 @@
         </is>
       </c>
       <c r="BQ234" t="inlineStr"/>
+      <c r="BR234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -49464,6 +49826,7 @@
         </is>
       </c>
       <c r="BQ235" t="inlineStr"/>
+      <c r="BR235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -49679,6 +50042,7 @@
         </is>
       </c>
       <c r="BQ236" t="inlineStr"/>
+      <c r="BR236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -49878,6 +50242,7 @@
         </is>
       </c>
       <c r="BQ237" t="inlineStr"/>
+      <c r="BR237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -50085,6 +50450,7 @@
         </is>
       </c>
       <c r="BQ238" t="inlineStr"/>
+      <c r="BR238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -50284,6 +50650,7 @@
         </is>
       </c>
       <c r="BQ239" t="inlineStr"/>
+      <c r="BR239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -50487,6 +50854,7 @@
         </is>
       </c>
       <c r="BQ240" t="inlineStr"/>
+      <c r="BR240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -50686,6 +51054,7 @@
         </is>
       </c>
       <c r="BQ241" t="inlineStr"/>
+      <c r="BR241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -50901,6 +51270,7 @@
         </is>
       </c>
       <c r="BQ242" t="inlineStr"/>
+      <c r="BR242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -51112,6 +51482,7 @@
         </is>
       </c>
       <c r="BQ243" t="inlineStr"/>
+      <c r="BR243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -51315,6 +51686,7 @@
         </is>
       </c>
       <c r="BQ244" t="inlineStr"/>
+      <c r="BR244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -51518,6 +51890,7 @@
         </is>
       </c>
       <c r="BQ245" t="inlineStr"/>
+      <c r="BR245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -51725,6 +52098,7 @@
         </is>
       </c>
       <c r="BQ246" t="inlineStr"/>
+      <c r="BR246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -51940,6 +52314,7 @@
         </is>
       </c>
       <c r="BQ247" t="inlineStr"/>
+      <c r="BR247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -52155,6 +52530,7 @@
         </is>
       </c>
       <c r="BQ248" t="inlineStr"/>
+      <c r="BR248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -52370,6 +52746,7 @@
         </is>
       </c>
       <c r="BQ249" t="inlineStr"/>
+      <c r="BR249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -52589,6 +52966,11 @@
         </is>
       </c>
       <c r="BQ250" t="inlineStr"/>
+      <c r="BR250" t="inlineStr">
+        <is>
+          <t>2913811</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -52800,6 +53182,11 @@
         </is>
       </c>
       <c r="BQ251" t="inlineStr"/>
+      <c r="BR251" t="inlineStr">
+        <is>
+          <t>3167479</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -53007,6 +53394,7 @@
         </is>
       </c>
       <c r="BQ252" t="inlineStr"/>
+      <c r="BR252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -53214,6 +53602,7 @@
         </is>
       </c>
       <c r="BQ253" t="inlineStr"/>
+      <c r="BR253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -53425,6 +53814,7 @@
         </is>
       </c>
       <c r="BQ254" t="inlineStr"/>
+      <c r="BR254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -53632,6 +54022,7 @@
         </is>
       </c>
       <c r="BQ255" t="inlineStr"/>
+      <c r="BR255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -53839,6 +54230,7 @@
         </is>
       </c>
       <c r="BQ256" t="inlineStr"/>
+      <c r="BR256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -54042,6 +54434,7 @@
         </is>
       </c>
       <c r="BQ257" t="inlineStr"/>
+      <c r="BR257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -54257,6 +54650,7 @@
         </is>
       </c>
       <c r="BQ258" t="inlineStr"/>
+      <c r="BR258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -54468,6 +54862,7 @@
         </is>
       </c>
       <c r="BQ259" t="inlineStr"/>
+      <c r="BR259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -54683,6 +55078,7 @@
         </is>
       </c>
       <c r="BQ260" t="inlineStr"/>
+      <c r="BR260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -54894,6 +55290,7 @@
         </is>
       </c>
       <c r="BQ261" t="inlineStr"/>
+      <c r="BR261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -55101,6 +55498,7 @@
         </is>
       </c>
       <c r="BQ262" t="inlineStr"/>
+      <c r="BR262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -55316,6 +55714,7 @@
         </is>
       </c>
       <c r="BQ263" t="inlineStr"/>
+      <c r="BR263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -55523,6 +55922,7 @@
         </is>
       </c>
       <c r="BQ264" t="inlineStr"/>
+      <c r="BR264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -55742,6 +56142,11 @@
         </is>
       </c>
       <c r="BQ265" t="inlineStr"/>
+      <c r="BR265" t="inlineStr">
+        <is>
+          <t>13723336</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -55941,6 +56346,7 @@
         </is>
       </c>
       <c r="BQ266" t="inlineStr"/>
+      <c r="BR266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -56140,6 +56546,11 @@
         </is>
       </c>
       <c r="BQ267" t="inlineStr"/>
+      <c r="BR267" t="inlineStr">
+        <is>
+          <t>2821818</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -56347,6 +56758,7 @@
         </is>
       </c>
       <c r="BQ268" t="inlineStr"/>
+      <c r="BR268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -56562,6 +56974,7 @@
         </is>
       </c>
       <c r="BQ269" t="inlineStr"/>
+      <c r="BR269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -56769,6 +57182,7 @@
         </is>
       </c>
       <c r="BQ270" t="inlineStr"/>
+      <c r="BR270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -56972,6 +57386,7 @@
         </is>
       </c>
       <c r="BQ271" t="inlineStr"/>
+      <c r="BR271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -57187,6 +57602,7 @@
         </is>
       </c>
       <c r="BQ272" t="inlineStr"/>
+      <c r="BR272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -57402,6 +57818,7 @@
         </is>
       </c>
       <c r="BQ273" t="inlineStr"/>
+      <c r="BR273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -57605,6 +58022,7 @@
         </is>
       </c>
       <c r="BQ274" t="inlineStr"/>
+      <c r="BR274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -57820,6 +58238,7 @@
         </is>
       </c>
       <c r="BQ275" t="inlineStr"/>
+      <c r="BR275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -58027,6 +58446,7 @@
         </is>
       </c>
       <c r="BQ276" t="inlineStr"/>
+      <c r="BR276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -58242,6 +58662,7 @@
         </is>
       </c>
       <c r="BQ277" t="inlineStr"/>
+      <c r="BR277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -58449,6 +58870,7 @@
         </is>
       </c>
       <c r="BQ278" t="inlineStr"/>
+      <c r="BR278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -58656,6 +59078,7 @@
         </is>
       </c>
       <c r="BQ279" t="inlineStr"/>
+      <c r="BR279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -58871,6 +59294,7 @@
         </is>
       </c>
       <c r="BQ280" t="inlineStr"/>
+      <c r="BR280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -59086,6 +59510,7 @@
         </is>
       </c>
       <c r="BQ281" t="inlineStr"/>
+      <c r="BR281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -59293,6 +59718,7 @@
         </is>
       </c>
       <c r="BQ282" t="inlineStr"/>
+      <c r="BR282" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
